--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2033291.99604941</v>
+        <v>2026118.707339128</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.7357022</v>
+        <v>2346514.735702198</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>149.0142977744307</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>102.2133755837553</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>90.63477397469349</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>43.71334625840051</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.25475958291772</v>
+        <v>332.4181858992072</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>372.0396308464235</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464235</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464235</v>
+        <v>14.83013367771038</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385214</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281872</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129663</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>179.3120471584072</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.9546773564002</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.339210268286</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>137.1649833439788</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>308.1404167520957</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>162.1522950416822</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>70.80276983270103</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274179</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>124.8662493629312</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7644211441611412</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>42.96165421080067</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>104.1967738238278</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24.9064145304616</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2019,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>104.435614114766</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>100.6429089206</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>29.3220157029477</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>25.15992137229804</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>144.026298130119</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>142.4312553669905</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.09091720605332</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002147</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>248.3506529283183</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>70.0221531675694</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>131.3398926815351</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>122.6519788371653</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>123.266140695797</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4030,7 +4030,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>404.2843284558963</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="C2" t="n">
-        <v>404.2843284558963</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="D2" t="n">
-        <v>404.2843284558963</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="E2" t="n">
-        <v>404.2843284558963</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="F2" t="n">
-        <v>125.3383550191736</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G2" t="n">
         <v>22.09252109618844</v>
@@ -4330,10 +4330,10 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
@@ -4360,22 +4360,22 @@
         <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293418</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293418</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="V2" t="n">
-        <v>683.2303018926191</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="W2" t="n">
-        <v>404.2843284558963</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="X2" t="n">
-        <v>404.2843284558963</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2843284558963</v>
+        <v>737.4494614202825</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>266.5615620906656</v>
+        <v>113.6427978383031</v>
       </c>
       <c r="C3" t="n">
-        <v>266.5615620906656</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D3" t="n">
-        <v>266.5615620906656</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>266.5615620906656</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>266.5615620906656</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>411.954469746149</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="N3" t="n">
-        <v>685.3494183114809</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4436,25 +4436,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="V3" t="n">
-        <v>1104.626054809422</v>
+        <v>697.4699338288578</v>
       </c>
       <c r="W3" t="n">
-        <v>850.3886980812204</v>
+        <v>697.4699338288578</v>
       </c>
       <c r="X3" t="n">
-        <v>642.5371978756875</v>
+        <v>489.618433623325</v>
       </c>
       <c r="Y3" t="n">
-        <v>434.7768991107336</v>
+        <v>281.8581348583711</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
         <v>22.09252109618844</v>
@@ -4527,13 +4527,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1351.353799424644</v>
+        <v>778.9168197718676</v>
       </c>
       <c r="C5" t="n">
-        <v>1351.353799424644</v>
+        <v>409.9543028314559</v>
       </c>
       <c r="D5" t="n">
-        <v>1351.353799424644</v>
+        <v>51.68860422470537</v>
       </c>
       <c r="E5" t="n">
-        <v>975.5561925090652</v>
+        <v>51.68860422470537</v>
       </c>
       <c r="F5" t="n">
-        <v>599.7585855934859</v>
+        <v>44.7431034755019</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779066</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779066</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380457</v>
+        <v>57.64391735380354</v>
       </c>
       <c r="K5" t="n">
-        <v>220.174733845689</v>
+        <v>220.1747338456867</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039996</v>
+        <v>474.0852112039954</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494188</v>
+        <v>773.216086049413</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635725</v>
+        <v>1062.555213635718</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293133</v>
+        <v>1290.582309293123</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935886</v>
+        <v>1447.523776935875</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488198</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488198</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488198</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488198</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.762647488198</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.762647488198</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.762647488198</v>
+        <v>1114.692765124602</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.762647488198</v>
+        <v>1114.692765124602</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408.9816105038495</v>
+        <v>658.9226223886625</v>
       </c>
       <c r="C6" t="n">
-        <v>408.9816105038495</v>
+        <v>484.4695931075354</v>
       </c>
       <c r="D6" t="n">
-        <v>408.9816105038495</v>
+        <v>335.5351834462842</v>
       </c>
       <c r="E6" t="n">
-        <v>249.744155498394</v>
+        <v>176.2977284408287</v>
       </c>
       <c r="F6" t="n">
-        <v>249.744155498394</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782886</v>
+        <v>52.67537262782808</v>
       </c>
       <c r="K6" t="n">
-        <v>52.67537262782886</v>
+        <v>218.4568186361404</v>
       </c>
       <c r="L6" t="n">
-        <v>336.9933817739656</v>
+        <v>502.774827782276</v>
       </c>
       <c r="M6" t="n">
-        <v>705.3126163119249</v>
+        <v>502.774827782276</v>
       </c>
       <c r="N6" t="n">
-        <v>1073.631850849884</v>
+        <v>848.0470181903909</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.36189956272</v>
+        <v>1156.361899562709</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.80870570669</v>
+        <v>1386.808705706679</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707617</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107485</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.017297458533</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="U6" t="n">
-        <v>851.8940175005462</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="V6" t="n">
-        <v>616.7419092688035</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="W6" t="n">
-        <v>616.7419092688035</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>616.7419092688035</v>
+        <v>1034.898258173684</v>
       </c>
       <c r="Y6" t="n">
-        <v>408.9816105038495</v>
+        <v>827.1379594087305</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.6993533956208</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771388</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771388</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771388</v>
+        <v>176.653117965624</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771388</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888193</v>
+        <v>32.09990175888115</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611335</v>
+        <v>90.61654790611186</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236698</v>
+        <v>162.7032697236676</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400034</v>
+        <v>238.5105468400005</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057962</v>
+        <v>292.5145415057926</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918652</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.877315537684</v>
+        <v>378.1446555862785</v>
       </c>
       <c r="C8" t="n">
-        <v>1705.877315537684</v>
+        <v>378.1446555862785</v>
       </c>
       <c r="D8" t="n">
-        <v>1347.611616930934</v>
+        <v>378.1446555862785</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>378.1446555862785</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>371.199154837075</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4801,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>764.7444956504003</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822473</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590538</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365137</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216475</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.0071030383447</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C13" t="n">
-        <v>675.0071030383447</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="D13" t="n">
-        <v>675.0071030383447</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383447</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383447</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0071030383447</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.0071030383447</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845922</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>420.3226148324578</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>420.3226148324578</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>420.3226148324578</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>420.3226148324578</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>252.1472931522784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>1044.311772267564</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324578</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324578</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324578</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845922</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528587</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.242231453999</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C19" t="n">
-        <v>847.3060485260917</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352016</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.242231453999</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.242231453999</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,46 +5752,46 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028587</v>
@@ -5910,7 +5910,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
         <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305959</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.9038434870658</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5986,55 +5986,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.6964226305959</v>
+        <v>441.9005583181208</v>
       </c>
       <c r="C25" t="n">
-        <v>437.6964226305959</v>
+        <v>441.9005583181208</v>
       </c>
       <c r="D25" t="n">
-        <v>437.6964226305959</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>437.6964226305959</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>290.8064751326855</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G25" t="n">
-        <v>122.6311534525061</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>122.6311534525061</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947121</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.13085534741</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609682</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550814</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>441.9005583181208</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>441.9005583181208</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.6964226305959</v>
+        <v>441.9005583181208</v>
       </c>
     </row>
     <row r="26">
@@ -6226,34 +6226,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>503.0396462065471</v>
+        <v>727.7227988731076</v>
       </c>
       <c r="C28" t="n">
-        <v>503.0396462065471</v>
+        <v>558.7866159452008</v>
       </c>
       <c r="D28" t="n">
-        <v>503.0396462065471</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>503.0396462065471</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,43 +6393,43 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.60808497467</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557906</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557906</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347412</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347412</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141525</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="W28" t="n">
-        <v>731.0291971045644</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="X28" t="n">
-        <v>503.0396462065471</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="Y28" t="n">
-        <v>503.0396462065471</v>
+        <v>909.3712637033474</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1418.016354188152</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1218.096344103704</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932102</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095317</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001781</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281742</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945775</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164473</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698579</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6867,43 +6867,43 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974664</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>824.3515998808207</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>824.3515998808207</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>824.3515998808207</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6937,13 +6937,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6976,7 +6976,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028587</v>
@@ -7095,7 +7095,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7104,7 +7104,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>1428.186822913893</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1138.769652876933</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y40" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7408,55 +7408,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>861.4909633328887</v>
+        <v>221.1079791745943</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>221.1079791745943</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799419</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471246</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347414</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609719</v>
       </c>
       <c r="V43" t="n">
-        <v>861.4909633328887</v>
+        <v>731.317728355085</v>
       </c>
       <c r="W43" t="n">
-        <v>861.4909633328887</v>
+        <v>441.9005583181244</v>
       </c>
       <c r="X43" t="n">
-        <v>861.4909633328887</v>
+        <v>441.9005583181244</v>
       </c>
       <c r="Y43" t="n">
-        <v>861.4909633328887</v>
+        <v>221.1079791745943</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7663,34 +7663,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>272.4433368266699</v>
       </c>
       <c r="O3" t="n">
-        <v>269.6013618017768</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357532</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835742</v>
+        <v>78.06372243715209</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470466</v>
+        <v>414.3354383916497</v>
       </c>
       <c r="O6" t="n">
-        <v>165.9988519439172</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498445</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863226</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>176.7176547498446</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776736</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,10 +11144,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>127.6461250100646</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>23.74922365528117</v>
       </c>
       <c r="E13" t="n">
-        <v>145.669541502408</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>105.9521741567355</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>182.3262245127632</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>123.7090584877508</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>121.2740412742711</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.34209567542521</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>125.0667464684371</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>119.2934573152647</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>85.25932409197395</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>4.589174888093368</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.989792655940789</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>29.87343519773945</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338859</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>37.886699470259</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>182.1154901562586</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>35.90692841709276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>25.96349418104703</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>128.871502628031</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978006</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978006</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583918</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="F2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="F2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="G2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.230645907</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="P2" t="n">
         <v>527889.2306459071</v>
@@ -26368,19 +26368,19 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703853</v>
+        <v>106137.1517703819</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252095</v>
+        <v>316711.9424252126</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.370099883548738e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113916</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313444</v>
+        <v>24677.24609313365</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817109</v>
+        <v>76496.15793817177</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338373</v>
@@ -26420,25 +26420,25 @@
         <v>300141.6569151476</v>
       </c>
       <c r="C4" t="n">
-        <v>269877.2512870319</v>
+        <v>269877.2512870329</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="F4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29303.54555230232</v>
-      </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26447,19 +26447,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230229</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485725</v>
+        <v>58810.42201485702</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>76586.81677965028</v>
       </c>
       <c r="C6" t="n">
-        <v>119378.369586117</v>
+        <v>119378.3695861199</v>
       </c>
       <c r="D6" t="n">
-        <v>-19858.6031520541</v>
+        <v>-19858.60315205707</v>
       </c>
       <c r="E6" t="n">
-        <v>-118561.6773320084</v>
+        <v>-119536.2685917297</v>
       </c>
       <c r="F6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851665</v>
       </c>
       <c r="G6" t="n">
-        <v>406598.359144888</v>
+        <v>405623.7678851666</v>
       </c>
       <c r="H6" t="n">
-        <v>406598.3591448882</v>
+        <v>405623.7678851661</v>
       </c>
       <c r="I6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851665</v>
       </c>
       <c r="J6" t="n">
-        <v>334343.664273749</v>
+        <v>333369.0730140275</v>
       </c>
       <c r="K6" t="n">
-        <v>381921.1130517538</v>
+        <v>380946.5217920328</v>
       </c>
       <c r="L6" t="n">
-        <v>330102.2012067168</v>
+        <v>329127.6099469946</v>
       </c>
       <c r="M6" t="n">
-        <v>271797.3439110509</v>
+        <v>270822.7526513292</v>
       </c>
       <c r="N6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851666</v>
       </c>
       <c r="O6" t="n">
-        <v>406598.359144888</v>
+        <v>405623.7678851665</v>
       </c>
       <c r="P6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851666</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593902</v>
+        <v>117.5602045593876</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,13 +26792,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464235</v>
+        <v>372.0396308464205</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26810,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26825,10 +26825,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026489</v>
+        <v>82.53894384026225</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576964</v>
+        <v>260.183459657699</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406802</v>
+        <v>95.883117144065</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081321</v>
+        <v>302.247641908135</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023557</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440678</v>
+        <v>95.88311714406473</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081322</v>
+        <v>302.2476419081349</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406802</v>
+        <v>95.883117144065</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081321</v>
+        <v>302.247641908135</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>216.2585939965768</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>312.9485729435642</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27432,16 +27432,16 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>82.07372501362225</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.55484215533878</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27517,10 +27517,10 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.4790820805629</v>
+        <v>50.3156557642734</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.890739225838274</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528793</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128686</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280912</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.181917138522</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409303</v>
+        <v>198.2506096409306</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281892</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129699</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>46.61269904456395</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.740305804519437</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.49276991365127</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>9.268979302590367</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.7789855469582</v>
@@ -27794,10 +27794,10 @@
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358461</v>
+        <v>78.37121764358496</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322645</v>
+        <v>68.41045236322685</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255179</v>
+        <v>167.7613787255182</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>73.78995332016603</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>251.6318749791128</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>96.50703242634988</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.104943754957264e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29228,7 +29228,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.6299823290042e-12</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-6.217746946403958e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.373124167817878e-12</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31059,28 +31059,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31120,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
@@ -31150,10 +31150,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31162,7 +31162,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31238,10 +31238,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.472603837424684</v>
+        <v>0.4726038374246734</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025546</v>
+        <v>4.840054050025437</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231515</v>
+        <v>18.22005944231474</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662331</v>
+        <v>40.1116599466224</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038481019</v>
+        <v>60.11698038480884</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439588</v>
+        <v>74.5804300743942</v>
       </c>
       <c r="M5" t="n">
-        <v>82.9850985681971</v>
+        <v>82.98509856819524</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127999</v>
+        <v>84.3278842212781</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288829</v>
+        <v>79.62842981288649</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646639</v>
+        <v>67.96102257646486</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869488</v>
+        <v>51.03589764869373</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262833</v>
+        <v>29.68720080262766</v>
       </c>
       <c r="S5" t="n">
-        <v>10.769459945315</v>
+        <v>10.76945994531476</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326555</v>
+        <v>2.068823298326508</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397471</v>
+        <v>0.03780830699397386</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560469</v>
+        <v>0.2528653456560412</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941296</v>
+        <v>2.44214689094124</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596352</v>
+        <v>8.706109488596157</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182854</v>
+        <v>23.89022987182801</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078368</v>
+        <v>40.83220803078277</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483598</v>
+        <v>54.90394270483475</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486767</v>
+        <v>64.07031148486622</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827102</v>
+        <v>65.76606198270872</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106832</v>
+        <v>60.16309827106696</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496917</v>
+        <v>48.28619043496808</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128768</v>
+        <v>32.27803956128695</v>
       </c>
       <c r="R6" t="n">
-        <v>15.6998326013465</v>
+        <v>15.69983260134615</v>
       </c>
       <c r="S6" t="n">
-        <v>4.69686288970771</v>
+        <v>4.696862889707605</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359241</v>
+        <v>1.019224792359218</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0166358780036873</v>
+        <v>0.01663587800368693</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005397</v>
+        <v>0.211993811500535</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886618</v>
+        <v>1.884817705886576</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761688</v>
+        <v>6.375232076761544</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308816</v>
+        <v>14.98796247308782</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342634</v>
+        <v>24.62982646342579</v>
       </c>
       <c r="L7" t="n">
-        <v>31.5176981207257</v>
+        <v>31.51769812072499</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094369</v>
+        <v>33.23099356094295</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898716</v>
+        <v>32.44083480898643</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736721</v>
+        <v>29.96436164736653</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275618</v>
+        <v>25.6396878927556</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846792</v>
+        <v>17.75159088846753</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651538</v>
+        <v>9.532012651651325</v>
       </c>
       <c r="S7" t="n">
-        <v>3.69447396951395</v>
+        <v>3.694473969513867</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477604</v>
+        <v>0.9057917400477401</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912036</v>
+        <v>0.0115632988091201</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
@@ -34786,19 +34786,19 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>160.6933770016707</v>
       </c>
       <c r="O3" t="n">
-        <v>144.9277431142228</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,13 +34868,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201079</v>
+        <v>28.16237059200989</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109944</v>
+        <v>164.172541910993</v>
       </c>
       <c r="L5" t="n">
-        <v>256.475229654859</v>
+        <v>256.4752296548574</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337569</v>
+        <v>302.152398833755</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366732</v>
+        <v>292.2617450366714</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539469</v>
+        <v>230.3303996539451</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926795</v>
+        <v>158.526734992678</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843415007</v>
+        <v>41.04519843414892</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557068</v>
+        <v>23.14363854557015</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690024</v>
       </c>
       <c r="L6" t="n">
-        <v>287.189908228421</v>
+        <v>287.1899082284198</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464235</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464235</v>
+        <v>348.7597882910251</v>
       </c>
       <c r="O6" t="n">
-        <v>83.56570577054111</v>
+        <v>311.4291731033521</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605761</v>
+        <v>232.774551660575</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111153</v>
+        <v>102.3735532111145</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543485</v>
+        <v>2.360334637542934</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104184</v>
+        <v>59.10772338104113</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278428</v>
+        <v>72.81487052278354</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821575</v>
+        <v>76.57300718821503</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140689</v>
+        <v>54.5494895614062</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764967</v>
+        <v>22.91824715764909</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058689</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178474</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187129</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178474</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789742</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700197</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056071</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700197</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>425.975359705869</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091983</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056002</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799339</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
